--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/43_Karabük_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/43_Karabük_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B855C6FF-0FB8-4B0A-8FF5-6650C0FE43E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{324C7885-94D6-4F9E-8CD1-EB22A9668CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="694" xr2:uid="{986DD0CB-6C0B-4546-AE53-B8DD3E870A07}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="694" xr2:uid="{645869E7-A246-4984-91F3-E913061AEDDC}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="124" r:id="rId1"/>
@@ -987,14 +987,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{B8B70F37-C67C-4309-8C2F-D0E7AFCF6D3F}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{DDA91C90-B883-4F76-A1CE-2D97755ADF49}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{701E6F50-B2E4-48E5-962A-56020AF40EFF}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{8C41C7C5-5156-4D6E-A154-32722C74A365}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{E7BB905F-BE23-49B5-A364-46D3B2046380}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{CE95DAE7-0647-4518-9BAF-385C8F5272FC}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{0F1A5E89-4583-483D-8779-5BF6F1796F88}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{CE250BEB-4EBF-43A2-8860-671CD57CC0C4}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{A2615D5C-89F5-45F8-8156-4489DE0BCD87}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{64B3034E-A2CC-44C5-AFFB-B19F65FE1F65}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{E5D501B7-DEC1-4EA5-A8BB-E447EA4172DF}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{161E73F5-CB1E-4FFE-A9D3-39C3ACC97980}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{65E046AF-FBC0-47F1-B02F-2B0A6A3612F3}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{93AD5495-523D-4DC7-B1A0-5AAB3D3E2560}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{EE593F4C-87D7-4094-AD9E-BBCEE8656E68}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{5070E28B-9780-4D2C-B8A7-E6315DCCC3E4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1364,7 +1364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B7F5478-74DE-4CAC-A2B5-F431E7EBC0D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C225DA2E-E855-4319-9A36-76B623FD9969}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2628,17 +2628,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B53538E4-B4A2-405B-B1E3-AD92A5216AC0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BCA7238E-D539-481E-8999-C4030D6DFB2E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7963B191-F71A-4BC3-84EC-E879EBC009D7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5607149F-B14D-41B7-9D76-FB6C3C5D53B5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{22BA1BFB-9E80-42B9-9E5E-2CE2D417BC2E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EA05697C-3ADF-4748-A340-C3401D6F82CD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FB5C2902-94FC-41F1-9B08-255F9A2494F5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CEFEFC65-C1E1-4811-A7B2-196A0BE480AE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9A2B2543-0010-439B-9D11-7D28F2CED19F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{FC60DACB-205B-4C83-B964-AFAF304B368A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2B8B92AF-F050-4BEC-B0D6-4F9C41A352B1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C95E96F2-3A1F-40BC-91C4-F1373F6C22A6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C666EE65-C306-40C8-87F1-EA6484EEE27B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{481B6CF1-DDBA-4342-AD30-275B116BE78A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3D61B8F7-9E24-4D27-B398-1787C5FE96D5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9B5F7C7F-F973-4BE1-8B36-CEA8A8AC67F6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0AA8ED7D-95D0-4FB1-AA7C-51F7764BC1A9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2546B802-CC1A-4C9F-BC69-8A1C0B770F8D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0F0D37CD-9E85-4D5D-80FC-DD86C3DDDAA2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{58EB9783-71AD-4319-B869-4B154D543B94}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{BF03CB8E-2CB1-419E-8A15-D1B9A3B765F5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3C4E212B-D65C-4C74-9433-20646DACF7B9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2651,7 +2651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B649FEC1-CF8E-4AE4-A685-5EDE6D2D6217}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCEB2F1-6A59-4A0C-877F-871CC62C2624}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3874,17 +3874,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{08514840-9B3B-49D7-9720-76348B71A90D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{34E749CD-4857-4780-8897-B60A78150F2A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8A5F9844-CC34-4BE9-BCB3-A616C0FEF187}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B479D49A-6682-4DE9-B755-5159B1207AF8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FE6227EE-F94D-4195-8D7B-F87AAFFF563C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FC29AA71-F896-4BF7-B8AF-43F381268D96}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FF6203BC-7B67-4208-9139-FB86AE392FB3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{251B68D5-B0DA-4181-AC80-3B194E584001}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{3896770A-9239-46DF-A149-9FC6CF17255B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{E75A3DC1-D1BF-423A-8BF1-53891082FE2D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{80B7DF0D-D5C6-46FB-A30B-782D8041B86F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{23D0F7FC-62B3-427A-955D-F89D4CAE80B8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{92CEDB58-36EF-4E7C-AA82-F6C74FF3AD96}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1ED6618B-1D64-4BD2-A5F5-35C80C5DD8BD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A19337E2-4E8F-4D4F-B7D8-A41C8F5CC5DE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B066DADB-64A7-4E03-AC62-894B7D2596B1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{41AA24CE-386A-4DB8-B5B6-C7F7539F33F3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C2AC6B93-DD00-4486-91AB-DBF8AC7A9603}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3AD28B28-19D0-460A-B18E-12AE3C011D14}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D79755B8-0CF5-4C71-BCE2-271342FC7809}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{3AF8D98D-D945-418D-A7D9-DDEF73AF28D5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{382EE6DE-9125-4B8F-876B-0905D0CCFCB8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3897,7 +3897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D97FCAC-174B-40FF-AD40-B9AC55940EA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55B7373-FB74-46B5-9B2E-9BD8D79D1CFA}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5108,17 +5108,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5797D10C-99EE-44E6-AAAB-FB3C9B83E2DF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{38802493-4FE0-4B08-95E6-9EFFC704F48F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D7A66838-FE46-4784-8CEA-78B821E4DC06}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{71BFD531-82F2-4053-9115-408E2E76643E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DCAC75CC-C63C-4DE5-A6F4-EFB03A1A5562}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EFE4553A-45A2-43C9-B95A-560FA326EE40}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B822608E-97E6-44B2-AFF8-A10EF0668288}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ADE96F2F-BCA5-4EDB-9379-4FBFD33BD7B3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{538C82E7-F831-4AE9-8DA5-07699E97863E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{FD89A16D-802F-4B8F-9157-673840F84380}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CF5DE96C-C187-41B8-BBD9-849CA51B0B96}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{51C9E320-7EA4-46FB-8C22-7EC2587EAA51}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CAEC65E5-49D7-44FA-8C4B-C1745EB5D90B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CD298650-F0F1-4C8A-98D7-7A7BB23D34FD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3F5C4CAE-AB18-4A98-8C07-B1C3203A5F6C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{02E1B9ED-D2BB-4197-A5A2-79E4A4AA7CE1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{990CF1FC-0AD6-4D0D-B805-E6745E2484D4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{62AB0B5B-ECDB-474B-91CC-BF268111CF41}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FB087D89-C1F3-4E63-BC2A-2AF3683D98D1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E0FEA4C4-538F-4D6F-AEE3-5D811994F06F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{EAAD1336-D4E8-4B2C-BDDE-9B39E5502DC4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4B67F1BA-A420-42D0-8BAC-2C2BC688FFDB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5131,7 +5131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C3D6F8-6624-4244-8F64-358D266BE234}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B121951-AB64-4F18-B4A8-A7B3A1BF64B3}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6342,17 +6342,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CB75EDC9-7980-4C96-81AD-196F784A30E1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{240E93DB-98D6-421A-907F-AC879DA86058}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6A86AD67-6197-499B-BB3E-89A12637D50A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9635BB2C-ABE7-47A5-8F8D-313514D635D1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F0AD5355-561E-44AD-A4F2-640EA7C02399}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{476C51F5-9C40-4633-B305-14C6B066FA6E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D6A4C3B8-476B-4EA1-B071-5F617F31B24D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D43691D7-6371-459E-A45D-437572519AD1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{3CBDF883-388F-4920-9DB7-2501139B0073}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{680CABE9-7E76-4482-B657-59ED7C54E82E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{573948D8-E81F-4E71-B51A-0D0F819EE394}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EC16CF1B-13B9-4D50-8D67-2EE128658683}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{81EB03BB-5491-4E7E-A758-9629C09B2072}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{14CB57F8-52A6-4161-BCE8-9CD8A42674DD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1295F931-5F0C-4FF0-9593-1515E3F37313}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B1C41B5E-EC8B-4706-A955-FCC5BD3F607F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E4FDCB6F-4AAC-47B1-85DB-8A14F4E83116}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2CD717B0-166D-46A0-8755-13621678D542}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{580A74B6-C61B-4062-8A94-9F8E8A69983E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{10309ED9-0C41-4969-AF13-BE98A07A6665}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{E30E3DC5-7BFD-469A-8E59-3E07DA5BAE45}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DE804D01-F8F7-4ED8-B971-6E50AAC2148E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6365,7 +6365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1D763A-4C85-442C-92A8-172F8AD12EEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CAB1D47-0A3C-4C3B-B71E-7AD4E93E21AE}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7598,17 +7598,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2D8BFDC0-2A41-47E3-8F35-F64CB8D16807}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5A8831BD-04C6-4D54-8947-9A9B61D4A0AE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{700EFD5C-8C07-4A8C-87B2-97A2CF5D8864}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{616CC093-EC0C-4741-BB93-C519D1FC2984}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B9BD9B36-22D8-4FA1-BE21-38DC68B3CE1A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0C441210-3EF9-44F7-97CD-C79B237B6C23}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BB2FF769-2BBF-4695-A38C-18E15AA052F3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4736D00D-C1FF-484D-8A57-B26B0767D5BE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{2C014D8D-E92B-415D-BD9F-1BFB7A556DDF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{0DCAA849-DA56-461F-9181-7A6B04FE6731}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F380A019-C6D0-43CA-BDAD-2EC311DCC9AF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8277BC2D-A3D3-4F8C-AB1E-9E711C719B2F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{24893E39-15E3-4105-AE47-049DD6569995}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A24DF1C0-726F-424C-8F27-3C505D3DF638}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0DD5D871-E0F7-4F54-849B-AEC8D578C3EE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A2E2C743-B2CA-43DF-BDEA-A7F904ADABEE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C424C371-6A35-4970-BAC9-1EBB6AB983EF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8A796607-DEF7-4771-AD48-29463E99EA52}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{22607DF5-C612-406D-A374-7F5329DEB798}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D7BA2E7B-5E8C-4224-98D3-AFFB033B7A67}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F92B053A-A8A6-4AF0-99D4-98E0C1B4198E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2F721E96-2497-4463-AD24-97978F3E31DE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7621,7 +7621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DF0FF7-AEBD-406C-BF2E-4754D6528F4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA783642-155E-449E-8053-A5E9C1F18ACA}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8854,17 +8854,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1550A97A-F82A-49E1-AC82-77725A2D8CEF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E8255F09-11C9-4197-ACAB-8A3CD1F56209}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9128A7D7-3298-4D91-8933-FA33FC115B4E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4CD113AF-8BCB-4E6E-B521-7011447DA740}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3395E42B-C965-4DEB-857E-E3125F277245}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C8DB35BC-8963-4CE5-806C-6AF9DB2DDC00}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F8DEAB1C-C9CF-488A-88A3-2A5202B525D3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CA89575F-6CE7-4DA3-ADB8-556A42CB960C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{CF828EFA-6C14-4BC6-A540-716AE46F5587}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{DB3A1F20-5C73-4FF5-A762-3A3B0FF6D266}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2FE041BB-EA79-4A42-A0C1-6F9341CB8CD2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{96B1B90A-47A5-43D0-A79A-4551CFE79A75}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FD99E80C-317B-4340-ABE1-60DA77762FF5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CF2A602C-DEE1-41CF-9444-25FCAE206AFB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{62F41CA7-CF3E-43DE-930E-B82B5F0F2F7A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C4617100-E52A-43EE-9814-21462431CBDF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{34EC4F25-CBDD-448B-95C3-9B2169C4740D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8DC21555-2A8F-492C-AAD6-C26369167640}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ABB040DA-40BC-4166-BE31-40CA09F7C0AB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{469C27C1-D282-4E44-9C76-F595A795F864}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{78BCAB11-5782-431F-8C84-F0379397DCD6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B8FE7A92-B427-4EB0-8F5F-0EA1BF3330FE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8877,7 +8877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403CE6F6-D624-4F47-AEBC-07E7B655F039}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAFC0E53-9647-4C95-B2DB-053DC7FF24E6}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10110,17 +10110,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9AC59E4F-879A-495A-B555-7C1F08D5119E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A9CD876B-3EAE-42F6-BC10-A4DE8CB43CD0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{61B106E1-71AD-462A-87BB-09B4A8FBADFD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F40D6E83-A74F-4327-9835-67073E7E4EB4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{942CDF7F-595E-4625-858D-B5D0C6D72DF6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F1FBEC0B-5ABA-46C9-B26F-DC6B4A5AC1D7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B924D66B-75A4-4E2E-A2DD-892E4CEF5D35}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{16BBF0CA-3B7A-46D2-8408-72E56B736321}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D79172C6-C226-4222-89AF-5949078A4F39}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{603912D0-B84F-433A-87F1-75412CFFB077}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{38853F00-4149-4165-B48C-B39A51EBF3FE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{84B14858-9056-4553-9DFA-DC7C42BDF521}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{870F532C-D7B7-42C0-889D-F6DBF90AB145}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D5CDCBA0-7524-4C63-817C-6B8A2C9C55CC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{10CF27C8-A894-41F5-81F5-64B689B5CF72}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D44BFCA1-105D-4A96-A842-3E7E0CA6BE0E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{550A5A6D-A831-44B5-9EDF-A314455019AB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EC12D776-F835-4686-B550-2CD5A55E67E5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{811CD9F9-C3BF-4DBF-BB6D-B8EA53134A95}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{8F6E70EA-D01E-4B96-9FCA-79F60A177880}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{A84A71AD-3014-46A6-8BCA-5609DAF5A408}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A7FEFE5C-1A2E-4DE9-BCD7-64954C4EA2EA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10133,7 +10133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{439A625E-6D08-407D-A5E4-077BBD3D43F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B4B191-9AB3-4EF4-AD08-120EFA9A742E}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11362,17 +11362,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{880195AD-684D-44EB-B89B-E7AFE6368F4A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{592D47D6-11CC-4D66-857C-FB7B7624E4FA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FDF5B0C7-D764-4D13-8319-659808AB82BE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{41120A88-C258-473D-9304-9655EED86DE1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DBC0A3C7-175E-4CD5-A932-278631E68C5D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BDB38F2F-3467-4590-972F-8A4943E43612}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{35250A94-371A-4ABA-9B6E-F29943B983EE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D9444B83-0022-408F-9972-8825BE0C4A2B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{6079C0B7-1C08-41D6-84CA-E67E937795BE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{15F8771F-7FC9-47BE-BF4A-53FE6DCADCDF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CF6A8A1C-6FF1-4D24-B2FD-71FC503C5AC8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3883398D-7275-407A-BC46-F87E59AFF48E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DB2B0C6F-6B86-4A96-9BEF-E8B9243086BC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A30EBC64-E367-4222-8680-C990C8C1F0AE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{322140EE-3E1B-4C36-B5EC-F0E57D37923E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{438B8D81-8107-4AB8-8BF6-75F67F32A2F8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{252BABDD-BE13-4D5A-9062-3F6A42D25688}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F02CE163-6757-4FA1-BBBD-E71B1CED6430}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4C3588A0-96BD-4F0D-823D-ED1B76AADF89}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A41CC1C8-3B50-40F4-9907-A2AC6C963F05}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C3581391-43D6-4878-B529-8B5902EB91F9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2DDD04ED-433A-43F7-A647-4C2B8E9DE11B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11385,7 +11385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905C791E-F7DA-4E2E-AB4D-25330C0D0D6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253D4EDE-6FDD-4166-8768-29831B4BCC3C}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12614,17 +12614,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{703EF78C-24B7-4567-A6A6-73492E046490}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D4324E80-7921-40B0-BF39-88BE177979ED}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{344BFC1E-4307-4647-8B99-97E067D8F88F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{ABFF5D48-3DCE-4DE0-B4A7-F28733E05D39}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EBE5F763-AC43-4360-9C15-011F3E34224B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{23F22E27-BA7A-4C1C-9B51-7EA5AE31CF51}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2A353B7A-3B60-4F84-AF86-ACA8EFB74754}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{375FE29A-65D5-4954-B88C-8B3E353BEBFF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{59B7835D-496F-46BF-8146-4E0B14C99DDE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{E498DE88-C340-4D63-A95C-BE30789C3288}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C7D17502-31A8-4E01-B6D7-A4F2006D8123}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{313C71E7-0A4C-45F1-A6A5-0E7C711B8F90}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4DE3A15B-D567-48CF-BEAA-5315CFC7F271}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5E37C6D6-92A5-4E7C-B831-4ECBB9AC9D9C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9CA814E0-F6AA-4089-8BAC-8FDA05AD3A8C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C40C854C-DD0A-42B9-81D5-ABF2080BFE26}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C9D6BAFA-3E45-4477-9DF1-F3D8CED86433}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{75E332BF-8EBC-4BA5-8FF0-A63185C6ED60}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9099F4A7-0EBF-4D69-9F9B-9C1687B979E8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{911E10BF-3E6D-444E-AC1A-3E5028D4F65C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8C821598-C616-460E-A1FD-F936D191C4F9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B224446C-4B4F-4F9B-B62E-F1C34734D31F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12637,7 +12637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEBEAEDA-FC31-4C78-BF0D-3942FD087034}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D7F705-DB1E-437B-BADD-18CADFDDE8E1}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13866,17 +13866,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D252F46D-E917-4EF2-A2DE-3058FC8AFD84}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B69CCF42-9936-430A-A60E-2BDAD42D1A97}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9FB9B74C-A98E-4F3E-A8EF-C1F20166CB73}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0A1DFE54-6AC4-4DEB-9556-6CCB9E8C9D9A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0F31E4B3-3A53-4774-8697-404F95BB9B13}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5198A6E9-3CE1-41F7-A6B8-93ECEB4D8341}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9F09FC94-6CA3-4C95-8473-696C812A1B19}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2D066618-1216-4555-88F8-3A13E2303B35}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{3FE1DE9A-7BB1-4277-8971-ADCA98E441F3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F8BA0793-D3CC-4415-AA97-6038A012FB4A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0135BC07-7A1A-4EB7-847B-BCE218B0B077}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0622FEEC-EFB8-4C1D-850F-C5C969E0ADEA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{25BBF05E-0B13-4367-B23B-7BC1A7774318}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{50299B06-3CD6-4358-B6BE-5E37BBE3BBE0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{83009851-A4AA-4239-AE3B-DFEA3983E2CF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{30251560-6F07-4F80-952A-90811195E8B1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0572D900-17F0-435C-9BF3-D9F42B37E932}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6ABA9620-3D6A-4537-8FD2-F152A596CE14}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8FC32029-D881-48A4-9BB1-2B286165F68D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9B6851D2-DDFA-478E-B177-B8C8F308C73C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C5CB4FEF-9298-4647-9A8B-77C671B16BA8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B0C67614-3676-49F7-86BA-6F91283BAF4A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13889,7 +13889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC657FA-287E-4981-B36B-7905E9D5C422}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7E227D-DF09-4227-96C0-70E2B7645D5D}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15112,17 +15112,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{72EAD83B-34CD-4759-8784-6A57B306311B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{556032DB-E312-4080-98E0-066AA1682729}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B31EFF7C-C4AA-4721-99EB-5F5794FA2D0F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8328809D-95B6-4868-A5AC-F35022FF3788}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0016D6BF-CD90-4624-BD45-7EDF53D1017C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2FB589F9-B5DD-4A87-AF7F-E9E43BC2EC59}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D50A5E43-230F-4954-BCE0-15C30357446F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DB695756-DDC3-4185-89B3-58C28EEDD445}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9CC22814-35E5-4B65-8ECF-E41B373F945F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C85DE401-01E2-4B87-8051-78E11CDC1B7E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{12830D2C-7E06-494A-95AC-94B919921CCF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{49C49380-D56E-45DA-AB32-AD6DB686ACF0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7C74AFAA-9BEB-4398-813B-E727C0FA67A4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0F33811D-A45C-4E44-BD8A-1F74E479823B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0C022882-B0B8-4D2F-B87C-15CFE412088C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{90AA9479-6BD7-4D02-8441-DACC72B4F5E7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{889BD0AB-76DC-45E7-9115-45E7381F2F07}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B56CC030-6C89-4B55-963A-A7A38E54125E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7BA015E3-B55D-49AA-AA11-61F9CD52DE06}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{BC6EFD1A-C060-4F8C-AA02-C96BB1C68470}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2234271F-3E6B-4833-9D5D-486B3EB2AF7D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B06FC8E2-1B7A-446A-A59E-4BC58A3A11FC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15135,7 +15135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9C65BC-543F-4264-B4AD-D257B4E50595}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBDFE07F-1BEF-43E5-9D22-0136550FF2B8}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16358,17 +16358,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{85406ADB-F476-466B-8337-640B3D00A541}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E4B3D566-3E67-493B-AFF5-EBB30B180418}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{095349B8-872C-43DA-B80A-8C1792AB30E9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CB717D42-6687-406C-9EF9-3B2DA79252D6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{285DA788-0153-496D-89A0-DFF68FC1572A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5B5B80B3-719D-4226-B3A0-C4F30E5759DA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AE0CAFB1-E3A2-42D5-B5E8-82F66563784B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0DBD14B5-0B91-4926-B856-80574302B139}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{10CE3C98-3827-44A0-A83F-E6031E9C245C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{13ED4479-D659-40F9-9E82-F2BF40B321F7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5565D7E7-D1D9-46E7-BB15-DFFF2983CAC6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BCF1CDE9-75CB-4934-B02A-94E88849E9EC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9A7F17B2-B97D-41AF-BE5C-9E53E00D3A06}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FAB3F898-BA7B-4AF9-B550-FB7680110D1A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2357889F-02ED-4411-86A8-530210DA71C2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D1A30CFC-BF1A-4286-9833-EC1FDE0AC695}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{39F71790-74B2-4759-8727-47D45CA15F9A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{83C84F5B-2B33-4EFC-9171-9479BF8F9C7F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{345C9D9C-D52C-4F2B-8F01-E083F3ED3F8E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0522B74B-B8E0-4425-AD62-CDB52F70DCBD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{13F2A2E5-2A9B-4625-847A-5A6F7A7F5E89}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AD5D96A6-73D1-4CC8-977D-18368BE4BCEC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
